--- a/data/pca/factorExposure/factorExposure_2017-02-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01847506006821481</v>
+        <v>0.01136935050589861</v>
       </c>
       <c r="C2">
-        <v>-0.01672380628681717</v>
+        <v>-0.04203824992597709</v>
       </c>
       <c r="D2">
-        <v>0.03272096108763079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03033136057398113</v>
+      </c>
+      <c r="E2">
+        <v>-0.04225430575058212</v>
+      </c>
+      <c r="F2">
+        <v>0.004968480626209433</v>
+      </c>
+      <c r="G2">
+        <v>-0.1056530012362973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01843066781579069</v>
+        <v>0.03994959620986833</v>
       </c>
       <c r="C3">
-        <v>-0.0007332538532075371</v>
+        <v>-0.1002889272516468</v>
       </c>
       <c r="D3">
-        <v>0.08575243548806447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01795884817211393</v>
+      </c>
+      <c r="E3">
+        <v>-0.1018692952893691</v>
+      </c>
+      <c r="F3">
+        <v>0.01204120888913528</v>
+      </c>
+      <c r="G3">
+        <v>-0.1467170838488887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03035429004474834</v>
+        <v>0.05529200004393015</v>
       </c>
       <c r="C4">
-        <v>-0.008882984443540127</v>
+        <v>-0.06792012316718159</v>
       </c>
       <c r="D4">
-        <v>0.08729718028997155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02518750494704077</v>
+      </c>
+      <c r="E4">
+        <v>-0.03940996608959613</v>
+      </c>
+      <c r="F4">
+        <v>-0.004141745776573244</v>
+      </c>
+      <c r="G4">
+        <v>-0.1007741202088323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.008526223323007499</v>
+        <v>0.03554638567587951</v>
       </c>
       <c r="C6">
-        <v>-0.01215862454319892</v>
+        <v>-0.05105960598245872</v>
       </c>
       <c r="D6">
-        <v>0.06825746316764711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01759648941888661</v>
+      </c>
+      <c r="E6">
+        <v>-0.04338013654626056</v>
+      </c>
+      <c r="F6">
+        <v>-0.002153682893016204</v>
+      </c>
+      <c r="G6">
+        <v>-0.08736111522836619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.001991928152785595</v>
+        <v>0.02049734197975423</v>
       </c>
       <c r="C7">
-        <v>-0.01413915458323488</v>
+        <v>-0.03992550882722409</v>
       </c>
       <c r="D7">
-        <v>0.03729696453183195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01420294829400863</v>
+      </c>
+      <c r="E7">
+        <v>-0.007936639060679818</v>
+      </c>
+      <c r="F7">
+        <v>0.005013253936970493</v>
+      </c>
+      <c r="G7">
+        <v>-0.1241747094467366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004593017023708699</v>
+        <v>0.002922790129357854</v>
       </c>
       <c r="C8">
-        <v>-0.003142890177786218</v>
+        <v>-0.02404284932350635</v>
       </c>
       <c r="D8">
-        <v>-0.0117090583135432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004161123949499658</v>
+      </c>
+      <c r="E8">
+        <v>-0.03213253896831823</v>
+      </c>
+      <c r="F8">
+        <v>-0.001023743812981905</v>
+      </c>
+      <c r="G8">
+        <v>-0.07121755534481145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0101710228370552</v>
+        <v>0.03239471205114779</v>
       </c>
       <c r="C9">
-        <v>-0.01031612739994567</v>
+        <v>-0.04964893977796245</v>
       </c>
       <c r="D9">
-        <v>0.05408899136374412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01673810742865597</v>
+      </c>
+      <c r="E9">
+        <v>-0.02722654318807734</v>
+      </c>
+      <c r="F9">
+        <v>-0.002440683185088643</v>
+      </c>
+      <c r="G9">
+        <v>-0.1023416621347341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1486322598677053</v>
+        <v>0.0969499424032241</v>
       </c>
       <c r="C10">
-        <v>0.08840853190738315</v>
+        <v>0.1821543349213669</v>
       </c>
       <c r="D10">
-        <v>-0.1175220202795612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01564663363136496</v>
+      </c>
+      <c r="E10">
+        <v>-0.01908679178778571</v>
+      </c>
+      <c r="F10">
+        <v>0.02473403653469416</v>
+      </c>
+      <c r="G10">
+        <v>-0.05186069179122032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.003007732261956757</v>
+        <v>0.03516320737417763</v>
       </c>
       <c r="C11">
-        <v>0.0006947396816773232</v>
+        <v>-0.05190145539033732</v>
       </c>
       <c r="D11">
-        <v>0.04813477283467184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002682858430663193</v>
+      </c>
+      <c r="E11">
+        <v>-0.02161659765455169</v>
+      </c>
+      <c r="F11">
+        <v>-0.01539819319125378</v>
+      </c>
+      <c r="G11">
+        <v>-0.0910481417077162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006627175810000221</v>
+        <v>0.0371818852507225</v>
       </c>
       <c r="C12">
-        <v>-0.00285006656001393</v>
+        <v>-0.04647760231238773</v>
       </c>
       <c r="D12">
-        <v>0.04185018750466184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006653945973625892</v>
+      </c>
+      <c r="E12">
+        <v>-0.01082785629585355</v>
+      </c>
+      <c r="F12">
+        <v>0.001067970511191103</v>
+      </c>
+      <c r="G12">
+        <v>-0.08245914068856236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01295118035283965</v>
+        <v>0.01435583197375374</v>
       </c>
       <c r="C13">
-        <v>-0.01721864451511075</v>
+        <v>-0.04197270133952381</v>
       </c>
       <c r="D13">
-        <v>0.03273992694720231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02717612214618624</v>
+      </c>
+      <c r="E13">
+        <v>-0.04222552851701167</v>
+      </c>
+      <c r="F13">
+        <v>0.006397202295530551</v>
+      </c>
+      <c r="G13">
+        <v>-0.1430707069590959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001583956025964163</v>
+        <v>0.009172437865475946</v>
       </c>
       <c r="C14">
-        <v>-0.006991114202707753</v>
+        <v>-0.0285222359897369</v>
       </c>
       <c r="D14">
-        <v>0.01700020211175423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01043988597099321</v>
+      </c>
+      <c r="E14">
+        <v>-0.00867038802490867</v>
+      </c>
+      <c r="F14">
+        <v>0.01001766078435722</v>
+      </c>
+      <c r="G14">
+        <v>-0.1120013012778323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.006447607918743482</v>
+        <v>0.03399212460350151</v>
       </c>
       <c r="C16">
-        <v>0.00279518380693722</v>
+        <v>-0.04480682780821558</v>
       </c>
       <c r="D16">
-        <v>0.03609720595249179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002114720162664543</v>
+      </c>
+      <c r="E16">
+        <v>-0.01614066939886127</v>
+      </c>
+      <c r="F16">
+        <v>0.002511580181967268</v>
+      </c>
+      <c r="G16">
+        <v>-0.09338506263932304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.009029540787322621</v>
+        <v>0.02086988438476723</v>
       </c>
       <c r="C19">
-        <v>-0.009805589237343759</v>
+        <v>-0.05151472873347565</v>
       </c>
       <c r="D19">
-        <v>0.04160345086456466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02031366214656386</v>
+      </c>
+      <c r="E19">
+        <v>-0.08757393852194756</v>
+      </c>
+      <c r="F19">
+        <v>-0.004530118660652186</v>
+      </c>
+      <c r="G19">
+        <v>-0.1418605978937899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.002149627517750619</v>
+        <v>0.01572330697086942</v>
       </c>
       <c r="C20">
-        <v>-0.0110482991451572</v>
+        <v>-0.04173619589221501</v>
       </c>
       <c r="D20">
-        <v>0.0336438465126556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01468079234983703</v>
+      </c>
+      <c r="E20">
+        <v>-0.03914494033625193</v>
+      </c>
+      <c r="F20">
+        <v>0.01929937365961335</v>
+      </c>
+      <c r="G20">
+        <v>-0.1130126896813988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.002477575870180479</v>
+        <v>0.01062361906439171</v>
       </c>
       <c r="C21">
-        <v>-0.01320874422113686</v>
+        <v>-0.03860479194818311</v>
       </c>
       <c r="D21">
-        <v>0.01045484914881853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01972210629497304</v>
+      </c>
+      <c r="E21">
+        <v>-0.04993692898987394</v>
+      </c>
+      <c r="F21">
+        <v>0.01180121833758091</v>
+      </c>
+      <c r="G21">
+        <v>-0.1434382992611205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001051877431526369</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006920533819165146</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002169447741498969</v>
+      </c>
+      <c r="E22">
+        <v>-0.01601153588460266</v>
+      </c>
+      <c r="F22">
+        <v>-0.009723294117121539</v>
+      </c>
+      <c r="G22">
+        <v>-0.003268343327549632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001060638711606481</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006927192075255616</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002167135951292852</v>
+      </c>
+      <c r="E23">
+        <v>-0.01598492945004593</v>
+      </c>
+      <c r="F23">
+        <v>-0.009713936073057136</v>
+      </c>
+      <c r="G23">
+        <v>-0.003157453119009955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0002119486035789424</v>
+        <v>0.02901027970460822</v>
       </c>
       <c r="C24">
-        <v>-0.006102622231478351</v>
+        <v>-0.04842916644679569</v>
       </c>
       <c r="D24">
-        <v>0.03889677545779931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007407364462107815</v>
+      </c>
+      <c r="E24">
+        <v>-0.01695498670468564</v>
+      </c>
+      <c r="F24">
+        <v>-0.00659915873822849</v>
+      </c>
+      <c r="G24">
+        <v>-0.09306067544197705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01490372582811336</v>
+        <v>0.04220845983260407</v>
       </c>
       <c r="C25">
-        <v>-0.003634849470271778</v>
+        <v>-0.05618005238749476</v>
       </c>
       <c r="D25">
-        <v>0.05314789056877396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01144311220528878</v>
+      </c>
+      <c r="E25">
+        <v>-0.00797668607843122</v>
+      </c>
+      <c r="F25">
+        <v>-0.002530146215022226</v>
+      </c>
+      <c r="G25">
+        <v>-0.09854184819796515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.008328534431518934</v>
+        <v>0.01441190074732116</v>
       </c>
       <c r="C26">
-        <v>-0.02045221274304575</v>
+        <v>-0.01179610915115422</v>
       </c>
       <c r="D26">
-        <v>-0.0004765355004847292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02438685523112032</v>
+      </c>
+      <c r="E26">
+        <v>-0.01060739647839867</v>
+      </c>
+      <c r="F26">
+        <v>0.008255419416876684</v>
+      </c>
+      <c r="G26">
+        <v>-0.08707757344733258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1995247436418113</v>
+        <v>0.1259839617995779</v>
       </c>
       <c r="C28">
-        <v>0.1019096578427992</v>
+        <v>0.2417352869545703</v>
       </c>
       <c r="D28">
-        <v>-0.1442481610125775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006978429626407606</v>
+      </c>
+      <c r="E28">
+        <v>-0.006481421333126488</v>
+      </c>
+      <c r="F28">
+        <v>0.02044674331718537</v>
+      </c>
+      <c r="G28">
+        <v>-0.04703963932895757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006126451129680389</v>
+        <v>0.009466370921561079</v>
       </c>
       <c r="C29">
-        <v>-0.004091773319268275</v>
+        <v>-0.02344390487108367</v>
       </c>
       <c r="D29">
-        <v>0.01590432739182134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009453342862941928</v>
+      </c>
+      <c r="E29">
+        <v>-0.004261342950714559</v>
+      </c>
+      <c r="F29">
+        <v>0.01595651444540964</v>
+      </c>
+      <c r="G29">
+        <v>-0.1038037156553798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01151115764408893</v>
+        <v>0.0402474375780659</v>
       </c>
       <c r="C30">
-        <v>-0.02085822175008103</v>
+        <v>-0.06858366068695063</v>
       </c>
       <c r="D30">
-        <v>0.09627311684406423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02981150168302502</v>
+      </c>
+      <c r="E30">
+        <v>-0.07026388140184915</v>
+      </c>
+      <c r="F30">
+        <v>-0.03091112857355242</v>
+      </c>
+      <c r="G30">
+        <v>-0.1385266359794967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02168636046323119</v>
+        <v>0.05367505024909416</v>
       </c>
       <c r="C31">
-        <v>0.006506745605722009</v>
+        <v>-0.03947221869556761</v>
       </c>
       <c r="D31">
-        <v>0.0279506706045862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00393781826428479</v>
+      </c>
+      <c r="E31">
+        <v>0.002607108840328378</v>
+      </c>
+      <c r="F31">
+        <v>0.03750076842349545</v>
+      </c>
+      <c r="G31">
+        <v>-0.09731079295928138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004370302594729604</v>
+        <v>0.002550712914877407</v>
       </c>
       <c r="C32">
-        <v>0.006912632797370914</v>
+        <v>-0.02140964314826323</v>
       </c>
       <c r="D32">
-        <v>-0.004089643229903198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002500983597025515</v>
+      </c>
+      <c r="E32">
+        <v>-0.04209407927032665</v>
+      </c>
+      <c r="F32">
+        <v>-0.03036457979681066</v>
+      </c>
+      <c r="G32">
+        <v>-0.09122762316986149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.006435353356454418</v>
+        <v>0.02781760691525969</v>
       </c>
       <c r="C33">
-        <v>-0.009203361266633799</v>
+        <v>-0.05133059183789473</v>
       </c>
       <c r="D33">
-        <v>0.03871343848171788</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01673601445475063</v>
+      </c>
+      <c r="E33">
+        <v>-0.05075402668179126</v>
+      </c>
+      <c r="F33">
+        <v>-0.00891732443364735</v>
+      </c>
+      <c r="G33">
+        <v>-0.1641848107896524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01420097061064365</v>
+        <v>0.04085085114974118</v>
       </c>
       <c r="C34">
-        <v>0.01418581395967263</v>
+        <v>-0.0577068892043478</v>
       </c>
       <c r="D34">
-        <v>0.05387693913970512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.00423975975196461</v>
+      </c>
+      <c r="E34">
+        <v>-0.01289829182162896</v>
+      </c>
+      <c r="F34">
+        <v>-0.01860453217995061</v>
+      </c>
+      <c r="G34">
+        <v>-0.09506981062533423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01036745801944032</v>
+        <v>0.0157235567722156</v>
       </c>
       <c r="C36">
-        <v>-0.0064538700464943</v>
+        <v>-0.01069828851306482</v>
       </c>
       <c r="D36">
-        <v>0.001055484171056231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01302721146445209</v>
+      </c>
+      <c r="E36">
+        <v>-0.01117806939049003</v>
+      </c>
+      <c r="F36">
+        <v>0.008873862843337551</v>
+      </c>
+      <c r="G36">
+        <v>-0.09430030433608798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01912167321745361</v>
+        <v>0.03165068434408171</v>
       </c>
       <c r="C38">
-        <v>0.01908698901103678</v>
+        <v>-0.03059856837150553</v>
       </c>
       <c r="D38">
-        <v>0.03800321887196006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.00741061118786397</v>
+      </c>
+      <c r="E38">
+        <v>-0.006578710438204225</v>
+      </c>
+      <c r="F38">
+        <v>0.01840462000688002</v>
+      </c>
+      <c r="G38">
+        <v>-0.08485425410386345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01273804575008075</v>
+        <v>0.03689866769739289</v>
       </c>
       <c r="C39">
-        <v>-0.01685223420745145</v>
+        <v>-0.07902145201463609</v>
       </c>
       <c r="D39">
-        <v>0.0947584596779648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01213157997860908</v>
+      </c>
+      <c r="E39">
+        <v>-0.03353734081608189</v>
+      </c>
+      <c r="F39">
+        <v>-0.01829399682221391</v>
+      </c>
+      <c r="G39">
+        <v>-0.09333342010139757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0146429396976267</v>
+        <v>0.01353541680766054</v>
       </c>
       <c r="C40">
-        <v>-0.003681528513496248</v>
+        <v>-0.03817440804088057</v>
       </c>
       <c r="D40">
-        <v>0.02575380213861066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.015113929471219</v>
+      </c>
+      <c r="E40">
+        <v>-0.03416282362471612</v>
+      </c>
+      <c r="F40">
+        <v>0.01292614863514008</v>
+      </c>
+      <c r="G40">
+        <v>-0.1243028764258069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01246372683678381</v>
+        <v>0.01997489422349455</v>
       </c>
       <c r="C41">
-        <v>0.003133397465148376</v>
+        <v>-0.004024816364453896</v>
       </c>
       <c r="D41">
-        <v>-0.01135421105556065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004941942328775465</v>
+      </c>
+      <c r="E41">
+        <v>-0.008781295395183221</v>
+      </c>
+      <c r="F41">
+        <v>0.01533256147382383</v>
+      </c>
+      <c r="G41">
+        <v>-0.08834363382551437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.03066163710766491</v>
+        <v>0.006971319029710204</v>
       </c>
       <c r="C42">
-        <v>-0.0873675354927002</v>
+        <v>-0.02744948043140678</v>
       </c>
       <c r="D42">
-        <v>0.09695357498460326</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08723096463623262</v>
+      </c>
+      <c r="E42">
+        <v>-0.006429884419811637</v>
+      </c>
+      <c r="F42">
+        <v>0.0398640060908492</v>
+      </c>
+      <c r="G42">
+        <v>0.02145347742888072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01344212194390138</v>
+        <v>0.03558270946290506</v>
       </c>
       <c r="C43">
-        <v>0.002872205446804508</v>
+        <v>-0.01920741379182508</v>
       </c>
       <c r="D43">
-        <v>-0.01004200310615433</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006263990243381399</v>
+      </c>
+      <c r="E43">
+        <v>-0.02236553956314142</v>
+      </c>
+      <c r="F43">
+        <v>0.01050298033543592</v>
+      </c>
+      <c r="G43">
+        <v>-0.121077400105419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002389852656448994</v>
+        <v>0.01325365130674925</v>
       </c>
       <c r="C44">
-        <v>-0.004470920882032785</v>
+        <v>-0.05822602342970929</v>
       </c>
       <c r="D44">
-        <v>0.04404721979858445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.00711009782108124</v>
+      </c>
+      <c r="E44">
+        <v>-0.02669377001472367</v>
+      </c>
+      <c r="F44">
+        <v>0.01355254624969031</v>
+      </c>
+      <c r="G44">
+        <v>-0.1099243817372108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.004702907999810613</v>
+        <v>0.009535737316871127</v>
       </c>
       <c r="C46">
-        <v>-0.008342770359814688</v>
+        <v>-0.01539333988650735</v>
       </c>
       <c r="D46">
-        <v>-0.004897780847857218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01257286855219088</v>
+      </c>
+      <c r="E46">
+        <v>0.0008993804920324043</v>
+      </c>
+      <c r="F46">
+        <v>0.0205649720446593</v>
+      </c>
+      <c r="G46">
+        <v>-0.1104683556990113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02644828543430141</v>
+        <v>0.07935813894401841</v>
       </c>
       <c r="C47">
-        <v>0.0165767538785814</v>
+        <v>-0.06984109058874809</v>
       </c>
       <c r="D47">
-        <v>0.07465805430153943</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005072999928728033</v>
+      </c>
+      <c r="E47">
+        <v>0.01199720070017181</v>
+      </c>
+      <c r="F47">
+        <v>0.05225584619963285</v>
+      </c>
+      <c r="G47">
+        <v>-0.08221018422741225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006011279094427301</v>
+        <v>0.01820645935001237</v>
       </c>
       <c r="C48">
-        <v>0.001865637710185096</v>
+        <v>-0.01380451961777134</v>
       </c>
       <c r="D48">
-        <v>0.01262449960721244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002691604416940672</v>
+      </c>
+      <c r="E48">
+        <v>-0.006833100301588302</v>
+      </c>
+      <c r="F48">
+        <v>0.02007704872094799</v>
+      </c>
+      <c r="G48">
+        <v>-0.100684786382778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03537123015210083</v>
+        <v>0.07528154101629769</v>
       </c>
       <c r="C50">
-        <v>0.01966643286574126</v>
+        <v>-0.07348565125152592</v>
       </c>
       <c r="D50">
-        <v>0.06581637721624324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001853118948430572</v>
+      </c>
+      <c r="E50">
+        <v>0.007303203402300744</v>
+      </c>
+      <c r="F50">
+        <v>0.05214484576906924</v>
+      </c>
+      <c r="G50">
+        <v>-0.09363175282994447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007796866382989278</v>
+        <v>0.0131046027970049</v>
       </c>
       <c r="C51">
-        <v>-0.002419816417696231</v>
+        <v>-0.03762625300359713</v>
       </c>
       <c r="D51">
-        <v>0.02393214597143414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01105031408106705</v>
+      </c>
+      <c r="E51">
+        <v>-0.03002827497542326</v>
+      </c>
+      <c r="F51">
+        <v>-0.01391010473973097</v>
+      </c>
+      <c r="G51">
+        <v>-0.1252157381944091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04246231531770238</v>
+        <v>0.08191627017489726</v>
       </c>
       <c r="C53">
-        <v>0.02329366299638154</v>
+        <v>-0.08415713064003735</v>
       </c>
       <c r="D53">
-        <v>0.112901409219684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003454269010205611</v>
+      </c>
+      <c r="E53">
+        <v>0.0291987777659596</v>
+      </c>
+      <c r="F53">
+        <v>0.05970466560282167</v>
+      </c>
+      <c r="G53">
+        <v>-0.08827591386644267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01508820078780309</v>
+        <v>0.03189778074055684</v>
       </c>
       <c r="C54">
-        <v>0.01164488444005748</v>
+        <v>-0.01928315615819417</v>
       </c>
       <c r="D54">
-        <v>-0.0005243488901669964</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0008553525086571195</v>
+      </c>
+      <c r="E54">
+        <v>-0.01961465618093466</v>
+      </c>
+      <c r="F54">
+        <v>0.009996938931345661</v>
+      </c>
+      <c r="G54">
+        <v>-0.1112249988075218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02596486786723164</v>
+        <v>0.07441897122519424</v>
       </c>
       <c r="C55">
-        <v>0.01562873444739532</v>
+        <v>-0.06770613870969891</v>
       </c>
       <c r="D55">
-        <v>0.0939060424582515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005106011947439256</v>
+      </c>
+      <c r="E55">
+        <v>0.02791006984476462</v>
+      </c>
+      <c r="F55">
+        <v>0.05783116567521726</v>
+      </c>
+      <c r="G55">
+        <v>-0.06593617089580649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.05484326809051464</v>
+        <v>0.1373671839219666</v>
       </c>
       <c r="C56">
-        <v>0.03552537880204679</v>
+        <v>-0.1061842640212931</v>
       </c>
       <c r="D56">
-        <v>0.1518730636890217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0132289557752239</v>
+      </c>
+      <c r="E56">
+        <v>0.03910743275155597</v>
+      </c>
+      <c r="F56">
+        <v>0.07334473295376091</v>
+      </c>
+      <c r="G56">
+        <v>-0.0359299283582434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01616780464435246</v>
+        <v>0.004914036383871511</v>
       </c>
       <c r="C57">
-        <v>-0.01639925645140437</v>
+        <v>-0.006065216493209434</v>
       </c>
       <c r="D57">
-        <v>0.02713790021286914</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02270859461964065</v>
+      </c>
+      <c r="E57">
+        <v>-0.02413262711971768</v>
+      </c>
+      <c r="F57">
+        <v>-0.002590758111714371</v>
+      </c>
+      <c r="G57">
+        <v>-0.02145690167778772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.004694256095901087</v>
+        <v>0.04797306660936667</v>
       </c>
       <c r="C58">
-        <v>-0.0007140085593367503</v>
+        <v>-0.0465994986185841</v>
       </c>
       <c r="D58">
-        <v>0.2202005797868482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02509295495421521</v>
+      </c>
+      <c r="E58">
+        <v>-0.8588710940684737</v>
+      </c>
+      <c r="F58">
+        <v>0.3941333235216294</v>
+      </c>
+      <c r="G58">
+        <v>0.2539402522388862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2236661337882627</v>
+        <v>0.1584202240304042</v>
       </c>
       <c r="C59">
-        <v>0.1206715573457217</v>
+        <v>0.2093601005690482</v>
       </c>
       <c r="D59">
-        <v>-0.123992340367219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01161644129569229</v>
+      </c>
+      <c r="E59">
+        <v>-0.02483838609668865</v>
+      </c>
+      <c r="F59">
+        <v>0.005858801304122956</v>
+      </c>
+      <c r="G59">
+        <v>-0.04033589379648749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2094055007200319</v>
+        <v>0.2893105997230347</v>
       </c>
       <c r="C60">
-        <v>0.09302437097941635</v>
+        <v>-0.1108644154648665</v>
       </c>
       <c r="D60">
-        <v>0.181342487840114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01302856845955632</v>
+      </c>
+      <c r="E60">
+        <v>-0.05460598861311236</v>
+      </c>
+      <c r="F60">
+        <v>-0.3461461995064606</v>
+      </c>
+      <c r="G60">
+        <v>0.1619811616037147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0008203214999268321</v>
+        <v>0.03843029325119839</v>
       </c>
       <c r="C61">
-        <v>-0.00419418198243032</v>
+        <v>-0.06499245762582773</v>
       </c>
       <c r="D61">
-        <v>0.07383593992683259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006225078162886638</v>
+      </c>
+      <c r="E61">
+        <v>-0.03015812701011382</v>
+      </c>
+      <c r="F61">
+        <v>-0.01115753811931775</v>
+      </c>
+      <c r="G61">
+        <v>-0.1001945734303373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006263174017874236</v>
+        <v>0.01495090078539118</v>
       </c>
       <c r="C63">
-        <v>-0.004874900004124947</v>
+        <v>-0.03056763733797388</v>
       </c>
       <c r="D63">
-        <v>0.02352225457225317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008929006179980749</v>
+      </c>
+      <c r="E63">
+        <v>-0.006645703222054992</v>
+      </c>
+      <c r="F63">
+        <v>0.01443673587577163</v>
+      </c>
+      <c r="G63">
+        <v>-0.09572829392724118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0254373891619447</v>
+        <v>0.04937740589381</v>
       </c>
       <c r="C64">
-        <v>0.008057753276846259</v>
+        <v>-0.04625331639831037</v>
       </c>
       <c r="D64">
-        <v>0.04988589839937696</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006404172963683525</v>
+      </c>
+      <c r="E64">
+        <v>-0.00613383338702612</v>
+      </c>
+      <c r="F64">
+        <v>-0.004046495998685436</v>
+      </c>
+      <c r="G64">
+        <v>-0.1008059896535518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03254216023794252</v>
+        <v>0.07465430282965806</v>
       </c>
       <c r="C65">
-        <v>-0.001275189909517034</v>
+        <v>-0.05904964959202166</v>
       </c>
       <c r="D65">
-        <v>0.1097810926652895</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01729274299359434</v>
+      </c>
+      <c r="E65">
+        <v>-0.04819482548297279</v>
+      </c>
+      <c r="F65">
+        <v>-0.02132036284710484</v>
+      </c>
+      <c r="G65">
+        <v>-0.04528366497446857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.009759616196034821</v>
+        <v>0.04980465326637576</v>
       </c>
       <c r="C66">
-        <v>-0.01469379707436529</v>
+        <v>-0.1051958058083598</v>
       </c>
       <c r="D66">
-        <v>0.1353869112408786</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01243454982504543</v>
+      </c>
+      <c r="E66">
+        <v>-0.0496553734379583</v>
+      </c>
+      <c r="F66">
+        <v>-0.02786376398501341</v>
+      </c>
+      <c r="G66">
+        <v>-0.106878086439867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04204391325142595</v>
+        <v>0.05510912340935788</v>
       </c>
       <c r="C67">
-        <v>0.02760898803354067</v>
+        <v>-0.03506214612772687</v>
       </c>
       <c r="D67">
-        <v>0.06065082470855636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006015777537954587</v>
+      </c>
+      <c r="E67">
+        <v>0.004156179573494451</v>
+      </c>
+      <c r="F67">
+        <v>0.01640769238192036</v>
+      </c>
+      <c r="G67">
+        <v>-0.07191787051683476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2299850687216862</v>
+        <v>0.1561308538026213</v>
       </c>
       <c r="C68">
-        <v>0.1021997636421073</v>
+        <v>0.2718773952039012</v>
       </c>
       <c r="D68">
-        <v>-0.1786762557057605</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005080125244533293</v>
+      </c>
+      <c r="E68">
+        <v>-0.007151611947994011</v>
+      </c>
+      <c r="F68">
+        <v>0.04747968402805348</v>
+      </c>
+      <c r="G68">
+        <v>-0.02488787133102656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03295128942099473</v>
+        <v>0.08269872577338855</v>
       </c>
       <c r="C69">
-        <v>0.02453162899619028</v>
+        <v>-0.07274345908551055</v>
       </c>
       <c r="D69">
-        <v>0.07649494295391386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008910899454156428</v>
+      </c>
+      <c r="E69">
+        <v>0.02462296202118621</v>
+      </c>
+      <c r="F69">
+        <v>0.03441744451655058</v>
+      </c>
+      <c r="G69">
+        <v>-0.1015025586406108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1919682952362634</v>
+        <v>0.1415427585656556</v>
       </c>
       <c r="C71">
-        <v>0.09280395467352748</v>
+        <v>0.2294333812064683</v>
       </c>
       <c r="D71">
-        <v>-0.1207193567895547</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002801374567066161</v>
+      </c>
+      <c r="E71">
+        <v>-0.03260137825694222</v>
+      </c>
+      <c r="F71">
+        <v>0.03106552679338878</v>
+      </c>
+      <c r="G71">
+        <v>-0.06984852143015577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.02384930442997593</v>
+        <v>0.08688081750376279</v>
       </c>
       <c r="C72">
-        <v>0.0205660432094212</v>
+        <v>-0.07006626916467461</v>
       </c>
       <c r="D72">
-        <v>0.09621439012256836</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008219576214388983</v>
+      </c>
+      <c r="E72">
+        <v>0.007709915651050929</v>
+      </c>
+      <c r="F72">
+        <v>-0.03339182704085262</v>
+      </c>
+      <c r="G72">
+        <v>-0.09337785630943432</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.277819058598825</v>
+        <v>0.3758170806256083</v>
       </c>
       <c r="C73">
-        <v>0.1208782941770943</v>
+        <v>-0.112959929229606</v>
       </c>
       <c r="D73">
-        <v>0.2704968005441584</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02296862976926424</v>
+      </c>
+      <c r="E73">
+        <v>-0.1570467588613589</v>
+      </c>
+      <c r="F73">
+        <v>-0.5691762205588811</v>
+      </c>
+      <c r="G73">
+        <v>0.2850577696780633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.05472613942254956</v>
+        <v>0.1061043224706469</v>
       </c>
       <c r="C74">
-        <v>0.03631188706041822</v>
+        <v>-0.1093722939104769</v>
       </c>
       <c r="D74">
-        <v>0.166108360362009</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009460763031282708</v>
+      </c>
+      <c r="E74">
+        <v>0.01410975546524236</v>
+      </c>
+      <c r="F74">
+        <v>0.06692128964803502</v>
+      </c>
+      <c r="G74">
+        <v>-0.07686194788713058</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1314531092286381</v>
+        <v>0.2490845099891305</v>
       </c>
       <c r="C75">
-        <v>0.08267191759035238</v>
+        <v>-0.1503739832021522</v>
       </c>
       <c r="D75">
-        <v>0.2837055168497696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03164100381597653</v>
+      </c>
+      <c r="E75">
+        <v>0.08702555909589266</v>
+      </c>
+      <c r="F75">
+        <v>0.1581138999381778</v>
+      </c>
+      <c r="G75">
+        <v>0.03210720795636466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.05515565808298271</v>
+        <v>0.1183048271662459</v>
       </c>
       <c r="C76">
-        <v>0.04187861317919249</v>
+        <v>-0.1109149648094764</v>
       </c>
       <c r="D76">
-        <v>0.1866873091028654</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01759903671390375</v>
+      </c>
+      <c r="E76">
+        <v>0.03440132240156608</v>
+      </c>
+      <c r="F76">
+        <v>0.09387511030944001</v>
+      </c>
+      <c r="G76">
+        <v>-0.05365453472709947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01927682011721142</v>
+        <v>0.07018997724144382</v>
       </c>
       <c r="C77">
-        <v>0.0002037272264645975</v>
+        <v>-0.05840940302001275</v>
       </c>
       <c r="D77">
-        <v>0.08366449063059213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01033213396706982</v>
+      </c>
+      <c r="E77">
+        <v>-0.05344965149494832</v>
+      </c>
+      <c r="F77">
+        <v>-0.001681523102933497</v>
+      </c>
+      <c r="G77">
+        <v>-0.06837878467474469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.01301525873488649</v>
+        <v>0.04240098391842757</v>
       </c>
       <c r="C78">
-        <v>0.002626904364727296</v>
+        <v>-0.05079755970381459</v>
       </c>
       <c r="D78">
-        <v>0.06781082434721801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006505671505167597</v>
+      </c>
+      <c r="E78">
+        <v>-0.03708038878746543</v>
+      </c>
+      <c r="F78">
+        <v>-0.03086399560633861</v>
+      </c>
+      <c r="G78">
+        <v>-0.1023192431136292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0009997238937072836</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003077151336231636</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003471301293461494</v>
+      </c>
+      <c r="E79">
+        <v>-0.004104288282233776</v>
+      </c>
+      <c r="F79">
+        <v>-0.001090589126808462</v>
+      </c>
+      <c r="G79">
+        <v>-0.001731837164916496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04015202759730141</v>
+        <v>0.04351580006545911</v>
       </c>
       <c r="C80">
-        <v>0.008990851568155427</v>
+        <v>-0.04980274712791052</v>
       </c>
       <c r="D80">
-        <v>0.0832607554143774</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01344439289866432</v>
+      </c>
+      <c r="E80">
+        <v>-0.0293989670532004</v>
+      </c>
+      <c r="F80">
+        <v>-0.004586080185870573</v>
+      </c>
+      <c r="G80">
+        <v>-0.05333408107192088</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.06691380825527356</v>
+        <v>0.1388332958824176</v>
       </c>
       <c r="C81">
-        <v>0.04182792148733437</v>
+        <v>-0.09763153212881522</v>
       </c>
       <c r="D81">
-        <v>0.1607569954233848</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01524359784988719</v>
+      </c>
+      <c r="E81">
+        <v>0.0496680955158611</v>
+      </c>
+      <c r="F81">
+        <v>0.1228214307453663</v>
+      </c>
+      <c r="G81">
+        <v>-0.01980524608199292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.004742637495587017</v>
+        <v>0.1440208150705505</v>
       </c>
       <c r="C82">
-        <v>0.002465419269804682</v>
+        <v>-0.08315787813231233</v>
       </c>
       <c r="D82">
-        <v>0.005984157885265146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01166300871889842</v>
+      </c>
+      <c r="E82">
+        <v>0.1221617131667656</v>
+      </c>
+      <c r="F82">
+        <v>0.05087479666890054</v>
+      </c>
+      <c r="G82">
+        <v>-0.05282908535761151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01463002388036332</v>
+        <v>0.03459308662176978</v>
       </c>
       <c r="C83">
-        <v>0.003503187989573022</v>
+        <v>-0.03136854752762388</v>
       </c>
       <c r="D83">
-        <v>0.01852951403751482</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006411145398897891</v>
+      </c>
+      <c r="E83">
+        <v>-0.03194153146218251</v>
+      </c>
+      <c r="F83">
+        <v>-0.02736219405962888</v>
+      </c>
+      <c r="G83">
+        <v>-0.06324649160792888</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1216819922094538</v>
+        <v>0.2098046368892772</v>
       </c>
       <c r="C85">
-        <v>0.06433634845424693</v>
+        <v>-0.1451376772150427</v>
       </c>
       <c r="D85">
-        <v>0.2615203207134936</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01745357415957401</v>
+      </c>
+      <c r="E85">
+        <v>0.1119467635096149</v>
+      </c>
+      <c r="F85">
+        <v>0.09603515076793834</v>
+      </c>
+      <c r="G85">
+        <v>0.067769976259604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01165915841313299</v>
+        <v>0.01395250249063794</v>
       </c>
       <c r="C86">
-        <v>0.0005386197926104255</v>
+        <v>-0.02783630404228795</v>
       </c>
       <c r="D86">
-        <v>0.04040933794973602</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01158566277025075</v>
+      </c>
+      <c r="E86">
+        <v>-0.05286795532243237</v>
+      </c>
+      <c r="F86">
+        <v>-0.007834528798925006</v>
+      </c>
+      <c r="G86">
+        <v>-0.1878604196462988</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.009100316166040135</v>
+        <v>0.0213844127792253</v>
       </c>
       <c r="C87">
-        <v>-0.0139263797543864</v>
+        <v>-0.01858135943705398</v>
       </c>
       <c r="D87">
-        <v>0.03042128293964058</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01250323334400277</v>
+      </c>
+      <c r="E87">
+        <v>-0.09976352015097936</v>
+      </c>
+      <c r="F87">
+        <v>0.01137789572091254</v>
+      </c>
+      <c r="G87">
+        <v>-0.1216392234438544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.044952323075743</v>
+        <v>0.09364472086514901</v>
       </c>
       <c r="C88">
-        <v>-0.001985493209068138</v>
+        <v>-0.06930992307406979</v>
       </c>
       <c r="D88">
-        <v>0.04499569973574143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02209986266052331</v>
+      </c>
+      <c r="E88">
+        <v>0.004811559905963151</v>
+      </c>
+      <c r="F88">
+        <v>0.01910622787582428</v>
+      </c>
+      <c r="G88">
+        <v>-0.1039200677003349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3400305004158685</v>
+        <v>0.229348313143117</v>
       </c>
       <c r="C89">
-        <v>0.1609839971333424</v>
+        <v>0.3670557420472839</v>
       </c>
       <c r="D89">
-        <v>-0.2248134163099925</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-4.261108612978521e-05</v>
+      </c>
+      <c r="E89">
+        <v>0.02144037136593593</v>
+      </c>
+      <c r="F89">
+        <v>0.02163928476880112</v>
+      </c>
+      <c r="G89">
+        <v>-0.07397586313397167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.288096997545062</v>
+        <v>0.2080331722159437</v>
       </c>
       <c r="C90">
-        <v>0.1398669932999895</v>
+        <v>0.3179142902082145</v>
       </c>
       <c r="D90">
-        <v>-0.1969692750384345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.00472642686421807</v>
+      </c>
+      <c r="E90">
+        <v>0.0008994945773596836</v>
+      </c>
+      <c r="F90">
+        <v>0.04935636937244169</v>
+      </c>
+      <c r="G90">
+        <v>-0.04598623230034758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1059250040976115</v>
+        <v>0.1859335013161721</v>
       </c>
       <c r="C91">
-        <v>0.06937129895807115</v>
+        <v>-0.1386967583809094</v>
       </c>
       <c r="D91">
-        <v>0.2086028946105132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02257431595789936</v>
+      </c>
+      <c r="E91">
+        <v>0.07917799037334887</v>
+      </c>
+      <c r="F91">
+        <v>0.128696500790387</v>
+      </c>
+      <c r="G91">
+        <v>-0.02399527205686185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2476656848208451</v>
+        <v>0.1984520249903345</v>
       </c>
       <c r="C92">
-        <v>0.1557923210813867</v>
+        <v>0.2573130439752771</v>
       </c>
       <c r="D92">
-        <v>-0.109451296307451</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03843946829490431</v>
+      </c>
+      <c r="E92">
+        <v>-0.03100358458445661</v>
+      </c>
+      <c r="F92">
+        <v>0.06664603573037009</v>
+      </c>
+      <c r="G92">
+        <v>-0.1118369638818628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3063148951163011</v>
+        <v>0.2316112130669653</v>
       </c>
       <c r="C93">
-        <v>0.1555466871041978</v>
+        <v>0.3137192867669851</v>
       </c>
       <c r="D93">
-        <v>-0.1584862061686812</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01145642386037262</v>
+      </c>
+      <c r="E93">
+        <v>-0.003732714290655558</v>
+      </c>
+      <c r="F93">
+        <v>0.04355217163099107</v>
+      </c>
+      <c r="G93">
+        <v>-0.05752958345625095</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1413851745667861</v>
+        <v>0.3207161690459158</v>
       </c>
       <c r="C94">
-        <v>0.06507207036075724</v>
+        <v>-0.1844914348041389</v>
       </c>
       <c r="D94">
-        <v>0.2815249369610743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02102352450786882</v>
+      </c>
+      <c r="E94">
+        <v>0.2884681045496888</v>
+      </c>
+      <c r="F94">
+        <v>0.4385570032273035</v>
+      </c>
+      <c r="G94">
+        <v>0.392756718775675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.01149681046192019</v>
+        <v>0.09539521399564606</v>
       </c>
       <c r="C95">
-        <v>0.01451450874786562</v>
+        <v>-0.08370119298705084</v>
       </c>
       <c r="D95">
-        <v>0.1314898994830166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009679318358630246</v>
+      </c>
+      <c r="E95">
+        <v>-0.09763971372254411</v>
+      </c>
+      <c r="F95">
+        <v>-0.1559854019896106</v>
+      </c>
+      <c r="G95">
+        <v>-0.02616012117165001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1400811092270793</v>
+        <v>0.191470404523243</v>
       </c>
       <c r="C98">
-        <v>0.08707706726013628</v>
+        <v>-0.04493312257185398</v>
       </c>
       <c r="D98">
-        <v>0.1165826005099008</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01174588903669833</v>
+      </c>
+      <c r="E98">
+        <v>-0.1055808868848864</v>
+      </c>
+      <c r="F98">
+        <v>-0.2298310901375044</v>
+      </c>
+      <c r="G98">
+        <v>0.02426693447728602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00576711760359123</v>
+        <v>0.009233674611933911</v>
       </c>
       <c r="C101">
-        <v>-0.004115565903148152</v>
+        <v>-0.02342690836915503</v>
       </c>
       <c r="D101">
-        <v>0.01619978294847101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009280671612224393</v>
+      </c>
+      <c r="E101">
+        <v>-0.003978083402809432</v>
+      </c>
+      <c r="F101">
+        <v>0.01684227348958878</v>
+      </c>
+      <c r="G101">
+        <v>-0.1028933456980892</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.06884996541359856</v>
+        <v>0.1161538837993936</v>
       </c>
       <c r="C102">
-        <v>0.02842066634776625</v>
+        <v>-0.08245644631250509</v>
       </c>
       <c r="D102">
-        <v>0.1315575009053502</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0006722847468277347</v>
+      </c>
+      <c r="E102">
+        <v>0.04101367383357385</v>
+      </c>
+      <c r="F102">
+        <v>0.03494801644918003</v>
+      </c>
+      <c r="G102">
+        <v>-0.01085133860034527</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.4491334507680904</v>
+        <v>0.02148463341730127</v>
       </c>
       <c r="C104">
-        <v>-0.8835444811193172</v>
+        <v>0.03028866644631779</v>
       </c>
       <c r="D104">
-        <v>-0.01943464052604036</v>
+        <v>0.9875354470628176</v>
+      </c>
+      <c r="E104">
+        <v>0.06053433984345361</v>
+      </c>
+      <c r="F104">
+        <v>0.02944468542094944</v>
+      </c>
+      <c r="G104">
+        <v>0.04168790430868614</v>
       </c>
     </row>
   </sheetData>
